--- a/biology/Médecine/Lénacapavir/Lénacapavir.xlsx
+++ b/biology/Médecine/Lénacapavir/Lénacapavir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9nacapavir</t>
+          <t>Lénacapavir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lénacapavir est un médicament antirétroviral utilisé pour traiter le VIH/SIDA. Il est vendu sous la marque Sunlenca[1].
+Le lénacapavir est un médicament antirétroviral utilisé pour traiter le VIH/SIDA. Il est vendu sous la marque Sunlenca.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9nacapavir</t>
+          <t>Lénacapavir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament agit en se fixant sur la capside virale, interférant avec plusieurs étapes du cycle de vie du virus[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament agit en se fixant sur la capside virale, interférant avec plusieurs étapes du cycle de vie du virus.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9nacapavir</t>
+          <t>Lénacapavir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un médicament antirétroviral utilisé pour traiter le VIH/SIDA [1]. Il est utilisé en association avec d'autres médicaments, chez les personnes atteintes d'une maladie résistante aux traitements habituels[2]. Le médicament est débuté par voie orale puis administré par injection sous la peau deux fois par an[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un médicament antirétroviral utilisé pour traiter le VIH/SIDA . Il est utilisé en association avec d'autres médicaments, chez les personnes atteintes d'une maladie résistante aux traitements habituels. Le médicament est débuté par voie orale puis administré par injection sous la peau deux fois par an.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%C3%A9nacapavir</t>
+          <t>Lénacapavir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent des réactions au site d'injection ou des nausées[1]. D'autres effets secondaires peuvent inclure le syndrome de reconstitution immunitaire. Bien qu'il n'y ait pas de preuve de nocivité pendant la grossesse, cette utilisation n'a pas été bien étudiée[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les effets secondaires de ce médicament comprennent des réactions au site d'injection ou des nausées. D'autres effets secondaires peuvent inclure le syndrome de reconstitution immunitaire. Bien qu'il n'y ait pas de preuve de nocivité pendant la grossesse, cette utilisation n'a pas été bien étudiée. 
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%C3%A9nacapavir</t>
+          <t>Lénacapavir</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical en Europe, au Canada et aux États-Unis en 2022[1],[2],[3]. Aux États-Unis, il coûte environ 42 250 dollars la première année et 39 000 dollars chaque année par la suite à partir de 2022[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le médicament a été approuvé pour un usage médical en Europe, au Canada et aux États-Unis en 2022. Aux États-Unis, il coûte environ 42 250 dollars la première année et 39 000 dollars chaque année par la suite à partir de 2022.
 </t>
         </is>
       </c>
